--- a/alignments.xlsx
+++ b/alignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="165">
   <si>
     <t>concept in mechanical testing ontology</t>
   </si>
@@ -498,6 +498,27 @@
   </si>
   <si>
     <t>based on EMMO version</t>
+  </si>
+  <si>
+    <t>http://emmo.info/emmo/domain/mechanical-testing#EMMO_16d31733_248f_4e55_b870_dfc96d3e2c3b</t>
+  </si>
+  <si>
+    <t>DataSet</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>SymbolicConstruct</t>
+  </si>
+  <si>
+    <t>http://emmo.info/emmo#EMMO_194e367c_9783_4bf5_96d0_9ad597d48d9a</t>
+  </si>
+  <si>
+    <t>EMMO/perspectives/data</t>
+  </si>
+  <si>
+    <t>beta4</t>
   </si>
 </sst>
 </file>
@@ -625,6 +646,12 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -634,12 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -924,7 +945,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,46 +960,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1128,60 +1149,60 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1566,7 +1587,7 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C23" t="s">
@@ -1595,7 +1616,7 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
@@ -1624,7 +1645,7 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
@@ -1682,7 +1703,7 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C27" t="s">
@@ -1842,7 +1863,7 @@
       <c r="F32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H32" t="s">
@@ -1885,7 +1906,7 @@
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C34" t="s">
@@ -1940,7 +1961,33 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F36" s="1"/>
+      <c r="A36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F37" s="1"/>
@@ -1964,46 +2011,46 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="8"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="7"/>
+      <c r="E60" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/alignments.xlsx
+++ b/alignments.xlsx
@@ -550,15 +550,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -638,20 +650,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,6 +760,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -944,15 +1063,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="89.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="83.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.88671875" bestFit="1" customWidth="1"/>
@@ -960,217 +1080,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1178,28 +1298,28 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="12" t="s">
         <v>106</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1207,850 +1327,914 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H23" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="H25" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H26" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H27" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H28" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H30" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H31" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H32" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H35" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F37" s="1"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F38" s="1"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F39" s="1"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F40" s="1"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F41" s="1"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F42" s="1"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F43" s="1"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F44" s="5"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="4"/>
+      <c r="E60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/alignments.xlsx
+++ b/alignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
   <si>
     <t>concept in mechanical testing ontology</t>
   </si>
@@ -519,6 +519,69 @@
   </si>
   <si>
     <t>beta4</t>
+  </si>
+  <si>
+    <t>In Fatigue module:</t>
+  </si>
+  <si>
+    <t>Revise Failure concepts:</t>
+  </si>
+  <si>
+    <t>FailureComment, FailureOrigin, FailureReason (subclasses Featureless, Inclusion (subclass InclusionElements), Pore, FailureType (subclasses: SurfaceFailure, VolumeFailure)</t>
+  </si>
+  <si>
+    <t>Fractography</t>
+  </si>
+  <si>
+    <t>Currently has superclass "Measurement", but isnt it a method, and a FractographyMeasurement is the measurement itself?</t>
+  </si>
+  <si>
+    <t>…revise all concepts for suitability as subclasses of:</t>
+  </si>
+  <si>
+    <t>Device [from oie/manufacturing]</t>
+  </si>
+  <si>
+    <t>Characterisation Machine [chameo]</t>
+  </si>
+  <si>
+    <t>Detector [chameo]</t>
+  </si>
+  <si>
+    <t>"Calibration Data" [chameo]</t>
+  </si>
+  <si>
+    <t>"Primary Data" [chameo]</t>
+  </si>
+  <si>
+    <t>"Raw Data" [chameo]</t>
+  </si>
+  <si>
+    <t>"Secondary Data" [chameo]</t>
+  </si>
+  <si>
+    <t>"Characterisation Property" [chameo]</t>
+  </si>
+  <si>
+    <t>…"Device" is double, 1x from oie/manufacturing and 1x from emmo beta4, the classes have different meanings, IRIs, and subclasses, but the same label.</t>
+  </si>
+  <si>
+    <t>same as Fractography</t>
+  </si>
+  <si>
+    <t>FatigueTesting and subclasses</t>
+  </si>
+  <si>
+    <t>"Characterisation Method" [chameo]</t>
+  </si>
+  <si>
+    <t>"Measurement Process" [chameo]</t>
+  </si>
+  <si>
+    <t>"Calibration Measurement" [chameo]</t>
+  </si>
+  <si>
+    <t>"Characterisation Workflow" [chameo]</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2217,24 +2280,129 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E60" s="2"/>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/alignments.xlsx
+++ b/alignments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="194">
   <si>
     <t>concept in mechanical testing ontology</t>
   </si>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>"Characterisation Workflow" [chameo]</t>
+  </si>
+  <si>
+    <t>In Mechanical testing module:</t>
+  </si>
+  <si>
+    <t>CantileverBending and TwoPointBending</t>
+  </si>
+  <si>
+    <t>are subclasses of BendingMeasurement -&gt; but aren't they methods, and for the measurement process itself it should be, e.g., CantileverBendingMeasurement?</t>
+  </si>
+  <si>
+    <t>MechanicalTesting</t>
+  </si>
+  <si>
+    <t>TensileTesting</t>
+  </si>
+  <si>
+    <t>same as CantileverBending</t>
+  </si>
+  <si>
+    <t>TensileTestMeasurement</t>
+  </si>
+  <si>
+    <t>exists, but what is the difference to TensileTesting, and why are they both a "Measurement"?</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,125 +2308,177 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B77" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B78" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B79" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E76" s="2"/>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E86" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
